--- a/zones_by_regions.xlsx
+++ b/zones_by_regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan\Extracts\leaderless-zookeeper-gcp-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9D5C6-08AD-44ED-9CBA-ECA1EB680ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C96119-2FD8-4D23-9F01-6DE8ABFCC3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F41C74B7-9CC8-4FF9-A933-21FDFDFEC651}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F41C74B7-9CC8-4FF9-A933-21FDFDFEC651}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">asia-southeast2-c          </t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Regions selected are boxed</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; 0cpu limit on asia south for some reason</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -372,6 +375,32 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -397,22 +426,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +759,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,22 +772,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -766,10 +795,10 @@
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -782,11 +811,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -814,7 +843,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -842,7 +871,7 @@
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -880,7 +909,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -905,18 +934,18 @@
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -926,8 +955,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -937,19 +966,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -960,7 +992,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -971,15 +1003,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -987,7 +1019,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -995,7 +1027,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
